--- a/intelligent-incident-agent/data/incidents.xlsx
+++ b/intelligent-incident-agent/data/incidents.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px05202\Downloads\ai\intelligent-incident-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B0851-43A5-484B-A9CE-1925D2399E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6CB49-04D4-42C0-B0C4-F2CDAF9D3D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,21 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>texto_pqr</t>
-  </si>
-  <si>
-    <t>categoria</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>area</t>
   </si>
   <si>
-    <t>sentimiento</t>
-  </si>
-  <si>
-    <t>fecha</t>
+    <t>pqr_text</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>The software keeps crashing every time I try to log in.</t>
+  </si>
+  <si>
+    <t>Technical support</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>I was overcharged this month on my invoice, please review.</t>
+  </si>
+  <si>
+    <t>Billing/payments</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>The production line response time has improved a lot lately.</t>
+  </si>
+  <si>
+    <t>Product/service issue</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>The customer service agent was very helpful and solved my issue quickly.</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>I feel unsafe entering the parking lot at night, security is missing.</t>
+  </si>
+  <si>
+    <t>Safety/security</t>
+  </si>
+  <si>
+    <t>The product delivered works fine but the instructions were confusing.</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -75,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,36 +412,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45856</v>
       </c>
     </row>
   </sheetData>
